--- a/assign01/data/csv/analysis/charts.xlsx
+++ b/assign01/data/csv/analysis/charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timgao/Library/Mobile Documents/com~apple~CloudDocs/NEU/6650/cs6650-fa21/assign01/data/csv/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5179DF8-25A7-7346-88A0-4D129BC34B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2329187-6469-E240-A70E-2A9D65516E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24060" windowHeight="15500" activeTab="1" xr2:uid="{3FD36725-F4FF-A843-95BB-9D9E709BEBCC}"/>
   </bookViews>
@@ -16,10 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$B$10:$E$10</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$4:$E$4</definedName>
-  </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>threads</t>
   </si>
@@ -72,6 +68,9 @@
   </si>
   <si>
     <t>part2</t>
+  </si>
+  <si>
+    <t>trend</t>
   </si>
 </sst>
 </file>
@@ -127,406 +126,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Wall Time by Threads (ms by part)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Part1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>390486</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>213692</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>124623</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79733</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0817-B146-A6A1-A3FC99166B00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Part2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>399636</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>206530</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>114642</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72433</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0817-B146-A6A1-A3FC99166B00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1436595519"/>
-        <c:axId val="1436597167"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1436595519"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1436597167"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1436597167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1436595519"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -946,7 +545,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1362,7 +961,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1568,6 +1167,49 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-96C9-BF41-9C12-CD7A1AE17775}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Theoretical</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>427.99680000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>855.99360000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1711.9872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3423.9744000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8DB2-B04E-AC7B-2DF435D8B44E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1767,7 +1409,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2327,46 +1969,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4379,551 +3981,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C772090D-9EAC-AB44-B4D2-E41DFEC4AB2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5377,17 +4435,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62F7821-884C-2042-99EB-A5725B322043}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -5604,9 +4663,47 @@
         <v>437</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>420563.25</v>
+      </c>
+      <c r="C18">
+        <v>210281.625</v>
+      </c>
+      <c r="D18">
+        <v>105140.8125</v>
+      </c>
+      <c r="E18">
+        <v>52570.40625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>427.99680000000001</v>
+      </c>
+      <c r="C19">
+        <v>855.99360000000001</v>
+      </c>
+      <c r="D19">
+        <v>1711.9872</v>
+      </c>
+      <c r="E19">
+        <v>3423.9744000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5614,8 +4711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5ACB05-E5EC-C042-BE77-D0BFD637F442}">
   <dimension ref="L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assign01/data/csv/analysis/charts.xlsx
+++ b/assign01/data/csv/analysis/charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timgao/Library/Mobile Documents/com~apple~CloudDocs/NEU/6650/cs6650-fa21/assign01/data/csv/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2329187-6469-E240-A70E-2A9D65516E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5576527C-5350-5446-A9F6-E499F0E00F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24060" windowHeight="15500" activeTab="1" xr2:uid="{3FD36725-F4FF-A843-95BB-9D9E709BEBCC}"/>
   </bookViews>
@@ -1610,6 +1610,49 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A05-4E47-828C-22C732040F31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Theoretical</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>420563.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210281.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105140.8125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52570.40625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A82F-B440-B2CC-C28EAFD01BE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4711,8 +4754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5ACB05-E5EC-C042-BE77-D0BFD637F442}">
   <dimension ref="L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assign01/data/csv/analysis/charts.xlsx
+++ b/assign01/data/csv/analysis/charts.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timgao/Library/Mobile Documents/com~apple~CloudDocs/NEU/6650/cs6650-fa21/assign01/data/csv/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5576527C-5350-5446-A9F6-E499F0E00F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4035A32-2847-0542-81D3-05D7E641B54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24060" windowHeight="15500" activeTab="1" xr2:uid="{3FD36725-F4FF-A843-95BB-9D9E709BEBCC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24220" windowHeight="15500" xr2:uid="{3FD36725-F4FF-A843-95BB-9D9E709BEBCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$B$10:$E$10</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$16:$E$16</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$25:$E$25</definedName>
+  </definedNames>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>threads</t>
   </si>
@@ -94,10 +100,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -106,8 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,7 +227,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
+              <c:f>Sheet1!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -231,7 +248,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$E$8</c:f>
+              <c:f>Sheet1!$B$13:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -252,21 +269,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$E$12</c:f>
+              <c:f>Sheet1!$B$17:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>79.921199999999999</c:v>
+                  <c:v>78.151600000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.063599999999994</c:v>
+                  <c:v>84.019900000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.9422</c:v>
+                  <c:v>94.714299999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118.6241</c:v>
+                  <c:v>114.4744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,7 +299,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$13</c:f>
+              <c:f>Sheet1!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -303,7 +320,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$E$8</c:f>
+              <c:f>Sheet1!$B$13:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -324,21 +341,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:f>Sheet1!$B$18:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,7 +643,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
+              <c:f>Sheet1!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -647,7 +664,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$E$8</c:f>
+              <c:f>Sheet1!$B$13:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -668,21 +685,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$E$14</c:f>
+              <c:f>Sheet1!$B$19:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1380</c:v>
+                  <c:v>1177</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2082</c:v>
+                  <c:v>1431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3202</c:v>
+                  <c:v>3510</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7128</c:v>
+                  <c:v>6076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,7 +715,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
+              <c:f>Sheet1!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -719,7 +736,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$E$8</c:f>
+              <c:f>Sheet1!$B$13:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -740,21 +757,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$E$15</c:f>
+              <c:f>Sheet1!$B$20:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>333</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>340</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>359</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>437</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,7 +1077,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Sheet1!$B$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1081,21 +1098,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$E$5</c:f>
+              <c:f>Sheet1!$B$10:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>460.964</c:v>
+                  <c:v>462.16770000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>842.33389999999997</c:v>
+                  <c:v>898.04669999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1443.8425999999999</c:v>
+                  <c:v>1607.0449000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2254.7251999999999</c:v>
+                  <c:v>2676.951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,7 +1141,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Sheet1!$B$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1145,21 +1162,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$E$11</c:f>
+              <c:f>Sheet1!$B$16:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>450.40989999999999</c:v>
+                  <c:v>462.27089999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>871.54409999999996</c:v>
+                  <c:v>872.02970000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1569.5469000000001</c:v>
+                  <c:v>1551.1054999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2481.9627</c:v>
+                  <c:v>2602.9969999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,21 +1205,21 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$E$19</c:f>
+              <c:f>Sheet1!$B$25:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>427.99680000000001</c:v>
+                  <c:v>418.55040000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>855.99360000000001</c:v>
+                  <c:v>837.10080000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1711.9872</c:v>
+                  <c:v>1674.2016000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3423.9744000000001</c:v>
+                  <c:v>3348.4032000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,7 +1520,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Sheet1!$B$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1524,21 +1541,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:f>Sheet1!$B$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>390486</c:v>
+                  <c:v>389469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213692</c:v>
+                  <c:v>200435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124623</c:v>
+                  <c:v>111967</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79733</c:v>
+                  <c:v>67157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1567,7 +1584,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Sheet1!$B$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1588,21 +1605,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$E$10</c:f>
+              <c:f>Sheet1!$B$15:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>399636</c:v>
+                  <c:v>389382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206530</c:v>
+                  <c:v>206415</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>114642</c:v>
+                  <c:v>116005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72433</c:v>
+                  <c:v>69065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,21 +1648,21 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$E$18</c:f>
+              <c:f>Sheet1!$B$24:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>420563.25</c:v>
+                  <c:v>430056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210281.625</c:v>
+                  <c:v>215028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105140.8125</c:v>
+                  <c:v>107514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52570.40625</c:v>
+                  <c:v>53757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,6 +1790,1692 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1436595519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and median response time by threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mean (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>78.151600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.019900000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.714299999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.4744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E94A-3949-B41E-A57C078DD6BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>median (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E94A-3949-B41E-A57C078DD6BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="906139392"/>
+        <c:axId val="906141072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="906139392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906141072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="906141072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906139392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>max and p99 by threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3510</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43F3-D342-B894-0E4E96E8B3CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p99 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-43F3-D342-B894-0E4E96E8B3CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1191272448"/>
+        <c:axId val="1191274096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1191272448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191274096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1191274096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191272448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>wall time by threads (the lower the better)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>part1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>389469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFE4-C242-98A9-3A64677F91DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>part2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>389382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFE4-C242-98A9-3A64677F91DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>theoretical</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>430056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DFE4-C242-98A9-3A64677F91DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="906314112"/>
+        <c:axId val="906315792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="906314112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906315792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="906315792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906314112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>throughput by threads (the higher the better)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>part1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>462.16770000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>898.04669999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1607.0449000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2676.951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC4F-C540-BC9A-F4FEF2144E88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>part2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>462.27089999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>872.02970000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1551.1054999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2602.9969999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC4F-C540-BC9A-F4FEF2144E88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>theoretical</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>418.55040000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>837.10080000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1674.2016000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3348.4032000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC4F-C540-BC9A-F4FEF2144E88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="905304624"/>
+        <c:axId val="905306272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="905304624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905306272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="905306272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905304624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2012,6 +3715,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3522,6 +5385,2018 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4159,6 +8034,163 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C761A6C1-7C94-C046-BFE5-89012D13C350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613C8706-A987-D745-B701-BE5A4D3BBB9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442D1E32-F561-104B-92D7-D3D55E048AF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24FBB52-BBBA-B547-9E40-D2EB4285BE9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5566CE55-F91E-7945-BDD9-DA884655A6BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4478,10 +8510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62F7821-884C-2042-99EB-A5725B322043}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4492,257 +8524,318 @@
     <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>764544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>13.079700000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B7">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="C7">
         <v>64</v>
       </c>
-      <c r="D2">
+      <c r="D7">
         <v>128</v>
       </c>
-      <c r="E2">
+      <c r="E7">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B8">
         <v>180000</v>
       </c>
-      <c r="C3">
+      <c r="C8">
         <v>180000</v>
       </c>
-      <c r="D3">
+      <c r="D8">
         <v>179936</v>
       </c>
-      <c r="E3">
+      <c r="E8">
         <v>179776</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>390486</v>
+      <c r="B9">
+        <v>389469</v>
       </c>
-      <c r="C4">
-        <v>213692</v>
+      <c r="C9">
+        <v>200435</v>
       </c>
-      <c r="D4">
-        <v>124623</v>
+      <c r="D9">
+        <v>111967</v>
       </c>
-      <c r="E4">
-        <v>79733</v>
+      <c r="E9">
+        <v>67157</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>460.964</v>
+      <c r="B10">
+        <v>462.16770000000002</v>
       </c>
-      <c r="C5">
-        <v>842.33389999999997</v>
+      <c r="C10">
+        <v>898.04669999999999</v>
       </c>
-      <c r="D5">
-        <v>1443.8425999999999</v>
+      <c r="D10">
+        <v>1607.0449000000001</v>
       </c>
-      <c r="E5">
-        <v>2254.7251999999999</v>
+      <c r="E10">
+        <v>2676.951</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B13">
         <v>32</v>
       </c>
-      <c r="C8">
+      <c r="C13">
         <v>64</v>
       </c>
-      <c r="D8">
+      <c r="D13">
         <v>128</v>
       </c>
-      <c r="E8">
+      <c r="E13">
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B14">
         <v>180000</v>
       </c>
-      <c r="C9">
+      <c r="C14">
         <v>180000</v>
       </c>
-      <c r="D9">
+      <c r="D14">
         <v>179936</v>
       </c>
-      <c r="E9">
+      <c r="E14">
         <v>179776</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B10">
-        <v>399636</v>
+      <c r="B15">
+        <v>389382</v>
       </c>
-      <c r="C10">
-        <v>206530</v>
+      <c r="C15">
+        <v>206415</v>
       </c>
-      <c r="D10">
-        <v>114642</v>
+      <c r="D15">
+        <v>116005</v>
       </c>
-      <c r="E10">
-        <v>72433</v>
+      <c r="E15">
+        <v>69065</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>450.40989999999999</v>
+      <c r="B16">
+        <v>462.27089999999998</v>
       </c>
-      <c r="C11">
-        <v>871.54409999999996</v>
+      <c r="C16">
+        <v>872.02970000000005</v>
       </c>
-      <c r="D11">
-        <v>1569.5469000000001</v>
+      <c r="D16">
+        <v>1551.1054999999999</v>
       </c>
-      <c r="E11">
-        <v>2481.9627</v>
+      <c r="E16">
+        <v>2602.9969999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>79.921199999999999</v>
-      </c>
-      <c r="C12">
-        <v>83.063599999999994</v>
-      </c>
-      <c r="D12">
-        <v>91.9422</v>
-      </c>
-      <c r="E12">
-        <v>118.6241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>73</v>
-      </c>
-      <c r="C13">
-        <v>74</v>
-      </c>
-      <c r="D13">
-        <v>75</v>
-      </c>
-      <c r="E13">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>1380</v>
-      </c>
-      <c r="C14">
-        <v>2082</v>
-      </c>
-      <c r="D14">
-        <v>3202</v>
-      </c>
-      <c r="E14">
-        <v>7128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>333</v>
-      </c>
-      <c r="C15">
-        <v>340</v>
-      </c>
-      <c r="D15">
-        <v>359</v>
-      </c>
-      <c r="E15">
-        <v>437</v>
-      </c>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>78.151600000000002</v>
+      </c>
+      <c r="C17">
+        <v>84.019900000000007</v>
+      </c>
+      <c r="D17">
+        <v>94.714299999999994</v>
+      </c>
+      <c r="E17">
+        <v>114.4744</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>420563.25</v>
+        <v>74</v>
       </c>
       <c r="C18">
-        <v>210281.625</v>
+        <v>76</v>
       </c>
       <c r="D18">
-        <v>105140.8125</v>
+        <v>77</v>
       </c>
       <c r="E18">
-        <v>52570.40625</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>1177</v>
+      </c>
+      <c r="C19">
+        <v>1431</v>
+      </c>
+      <c r="D19">
+        <v>3510</v>
+      </c>
+      <c r="E19">
+        <v>6076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>158</v>
+      </c>
+      <c r="C20">
+        <v>234</v>
+      </c>
+      <c r="D20">
+        <v>330</v>
+      </c>
+      <c r="E20">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <v>128</v>
+      </c>
+      <c r="E23">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <f>B3*18/32</f>
+        <v>430056</v>
+      </c>
+      <c r="C24">
+        <f>B3*18/64</f>
+        <v>215028</v>
+      </c>
+      <c r="D24">
+        <f>B3*18/128</f>
+        <v>107514</v>
+      </c>
+      <c r="E24">
+        <f>B3*18/256</f>
+        <v>53757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B19">
-        <v>427.99680000000001</v>
+      <c r="B25">
+        <f>B4*32</f>
+        <v>418.55040000000002</v>
       </c>
-      <c r="C19">
-        <v>855.99360000000001</v>
+      <c r="C25">
+        <f>B4*64</f>
+        <v>837.10080000000005</v>
       </c>
-      <c r="D19">
-        <v>1711.9872</v>
+      <c r="D25">
+        <f>B4*128</f>
+        <v>1674.2016000000001</v>
       </c>
-      <c r="E19">
-        <v>3423.9744000000001</v>
+      <c r="E25">
+        <f>B4*256</f>
+        <v>3348.4032000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4754,7 +8847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5ACB05-E5EC-C042-BE77-D0BFD637F442}">
   <dimension ref="L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
@@ -4769,4 +8862,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C311720-53E1-524E-8E85-058B5CBC3B8B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/assign01/data/csv/analysis/charts.xlsx
+++ b/assign01/data/csv/analysis/charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timgao/Library/Mobile Documents/com~apple~CloudDocs/NEU/6650/cs6650-fa21/assign01/data/csv/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4035A32-2847-0542-81D3-05D7E641B54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D01CBA-FFD2-F54D-B592-96FBA32F81A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24220" windowHeight="15500" xr2:uid="{3FD36725-F4FF-A843-95BB-9D9E709BEBCC}"/>
   </bookViews>
@@ -8513,7 +8513,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A7" sqref="A7:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
